--- a/big-data/big-data-capstone/project/data/beer_n_Cass Light.xlsx
+++ b/big-data/big-data-capstone/project/data/beer_n_Cass Light.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>obguthr(10,951)
+          <t>obguthr(10,955)
 🇺🇸Staunton, United States
 2.0June 16, 2021
 Tall boy @ Foodmaxx Harrisonburg VA: Rice nose, fingernail polish on the edges. Crystal clear yellow, medium head, minimal retention, some lace. Very little flavor, cane sugar,…
@@ -629,7 +629,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Oakes(27,868)
+          <t>Oakes(27,870)
 🇨🇦Richmond, Canada
 0.8February 27, 2020
 Very light, transluscent, watery and appley.  Egads. Really not good at all, this one.
@@ -1090,7 +1090,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jbruner(8,826)
+          <t>jbruner(8,828)
 🇺🇸Lakewood, United States
 2.1April 8, 2018
 Pours a clear straw yellow on tap with bubbly white head that dissipates to leave light lace. Aroma and taste of a light adjunct rice lager, crisp and refreshing, but unexciting. Clean but bland…
@@ -1157,7 +1157,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Erzengel(13,937)
+          <t>Erzengel(13,941)
 🇩🇪Saarland &amp; Düsseldorf, Germany
 1.4April 24, 2017
 Bottle in Seoul. Fresh smooth watery beginning. Malty smooth, mild watery, very watery. Intense mild, no aroma, no depth, no bitterness. Very bad.
@@ -1222,7 +1222,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>thorongil2(6,233)
+          <t>thorongil2(6,243)
 🇺🇸Camas, United States
 1.5October 16, 2015
 (can) clear pale yellow colour with a medium tall white head; aroma of skunk, rubber; neutral, barely present flavour, no finish
@@ -1548,7 +1548,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Beerhunter111(38,162)
+          <t>Beerhunter111(38,181)
 🇩🇪Beerland, Germany
 1.2January 20, 2014
 330ml Dose. Hellgelbe Farbe mit sehr wenig Schaum. Geruch schwach malzig, muffig. Geschmack extrem wässrig malzig.
@@ -1678,7 +1678,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>madmitch76(34,784)
+          <t>madmitch76(34,813)
 🇬🇧England
 1.7June 30, 2013
 11th June 2013
@@ -1745,7 +1745,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Scopey(22,709)
+          <t>Scopey(22,711)
 🇬🇧Oldmeldrum, Scotland
 1.9June 23, 2013
 Can, many thanks to Bruce..... It pours pale yellow with a small white head. The nose is dull sweetness, cereal, dough and paper. The taste is dough, grass, flour, hint of lemon and…
@@ -1942,7 +1942,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Leighton(31,545)
+          <t>Leighton(31,549)
 🇬🇧London, England
 3.8June 11, 2013
 Can at Bruce’s on the opening evening of Jack’s Farewell Tour in London - massive thanks to Bruce. Pours perfectly clear yellow with a lasting, frothy white head. Light dry cereal on the…
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>FatPhil(23,239)
+          <t>FatPhil(23,252)
 🇪🇪Tallinn, Estonia
 1.5May 25, 2013
 355ml can (Anywhere, Suwon)…
@@ -2272,7 +2272,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>joergen(39,716)
+          <t>joergen(39,740)
 🇩🇰Frederiksberg, Denmark
 1.2November 16, 2011
 Can at Papsø.
@@ -2404,7 +2404,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Ungstrup(48,901)
+          <t>Ungstrup(48,915)
 🇩🇰Citizen of the universe, Denmark
 1.7November 14, 2011
 Can. A yellow beer with a white head. The aroma has notes of malt, straw, and a bit of metal. The flavor is sweet with notes of straw, metal, and lemons, leading to a dry, metallic finish. The…
@@ -2470,7 +2470,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Pinball(13,783)
+          <t>Pinball(13,785)
 🇩🇰Copenhagen, Denmark
 2.5November 14, 2011
 can at papsoe 25 tasting.
@@ -2603,7 +2603,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>SHIG(11,157)
+          <t>SHIG(11,159)
 🇺🇸Hampton, United States
 2.3May 1, 2011
 Can: Poured a golden clear with a huge white fluffy head. Aroma is sweet harvest. Taste is soft grain and fresh, very mellow and not bad for a can. This is a nice beer for being light.
